--- a/申請單範例 - CICD Request form(System Name)_20240101.xlsx
+++ b/申請單範例 - CICD Request form(System Name)_20240101.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67164\Downloads\CICD 申請單\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos github\transfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Req</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -199,11 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>使用Gitlab group名稱 (ncbs_ach)
-範例 : ncbs_ach</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Project: 服務名稱
 使用Gitlab Project名稱
 範例 : ach-ag-adm</t>
@@ -270,8 +265,25 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Pineline ID _ Service Name
-單一開放指定 Folder 底下的 pipeline
+    <t>Gib url  (Git 建完後提供 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請授權查看的 Folder Name
+使用Gitlab group名稱
+範例 : ncbs_ach</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請授權查看單一開放指定 Folder 底下的 pipeline
 範例 : ncbs_ach / ach-ag-adm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -738,6 +750,55 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -752,55 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1101,7 +1113,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1123,42 +1135,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" s="27" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="39"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -1176,31 +1188,33 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="52"/>
+        <v>38</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>21</v>
@@ -1224,7 +1238,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="19"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1238,7 +1252,7 @@
       <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="19"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1252,7 +1266,7 @@
       <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="37"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="19"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1266,7 +1280,7 @@
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="19"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -1280,7 +1294,7 @@
       <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="19"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -1294,7 +1308,7 @@
       <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="19"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -1311,7 +1325,7 @@
       <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="54" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1323,11 +1337,11 @@
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="44" t="s">
-        <v>41</v>
+      <c r="G12" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>9</v>
@@ -1342,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>21</v>
@@ -1351,64 +1365,64 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="46" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="53" t="s">
+      <c r="D14" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="48" t="s">
+      <c r="G14" s="42" t="s">
         <v>48</v>
       </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="37" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22"/>
       <c r="E15" s="17"/>
@@ -1421,7 +1435,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22"/>
       <c r="E16" s="17"/>
@@ -1434,7 +1448,7 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="19"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -1447,7 +1461,7 @@
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="19"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -1460,7 +1474,7 @@
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="19"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -1473,7 +1487,7 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="19"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -1486,7 +1500,7 @@
       <c r="L20" s="17"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="6"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -1502,7 +1516,7 @@
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1512,12 +1526,14 @@
         <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="41" t="s">
+        <v>52</v>
+      </c>
       <c r="H23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1557,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="19"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -1554,7 +1570,7 @@
       <c r="L24" s="17"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="34"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -1567,7 +1583,7 @@
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="35"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="6"/>
       <c r="H26" s="16"/>
       <c r="J26" s="14"/>
@@ -1575,7 +1591,7 @@
     </row>
     <row r="27" spans="2:14" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1585,12 +1601,14 @@
         <v>34</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1632,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="34"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="19"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -1628,7 +1646,7 @@
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="19"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -1642,7 +1660,7 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="34"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="19"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -1656,7 +1674,7 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="34"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="19"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -1670,7 +1688,7 @@
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="34"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="19"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -1684,7 +1702,7 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="19"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -1698,7 +1716,7 @@
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="6"/>
       <c r="G35" s="8"/>
       <c r="J35" s="14"/>
@@ -1713,15 +1731,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B12:B21"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B12:B21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
